--- a/responses.xlsx
+++ b/responses.xlsx
@@ -1,43 +1,707 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CHATBOT AWB\Transcript_VENV\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2E3FC6-DE06-4518-B425-12937E16D447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="191">
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>translation</t>
+  </si>
+  <si>
+    <t>transcription</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>باش تبدل لكود سيكيوريتي (CSV) ديال البطاقة البنكية ديالك، يمكن ليك تتبع هاد الخطوات:
+1. دخل للحساب ديالك ف AttijariWafa Bank Mobile app ولا ف الموقع www.attijariwafabank.com/fr
+2. سير لقسم "إدارة الكونط" وختار البطاقة اللي بغيتي تبدل لكود سيكيوريتي ديالها.
+3. تبع التعليمات باش تدخل معلومات تسجيل الدخول وتأكد هوية الشخص اللي كيدير الطلب (ممكن يطلبو منك المعلومات الشخصية ولا الإجراءات التكميلية).
+4. دخل للقسم "إدارة البطاقة" وختار "تغيير الكود الآمن".
+5. غادي تلقى نموذج طلب فين خاصك تدخل لكود CSV الجديد ديالك، ومن بعد كمل عملية الطلب بالضغط على زر "تأكيد".
+ملاحظة: يمكن يطلبو منك معلومات إضافية ولا إجراءات تأكيد قبل ما يكمل الطلب.</t>
+  </si>
+  <si>
+    <t>où puis-je échanger mes billets pour des pièces de monnaie ?</t>
+  </si>
+  <si>
+    <t>فين نقدر نبدل الكوات السيفي ديال البطاقة ديالي</t>
+  </si>
+  <si>
+    <t>record_out_1.wav</t>
+  </si>
+  <si>
+    <t>باش تلقى أقرب وكالة بنكية من موقعك، يمكن ليك تستعمل خدمة البحث عن الوكالات البنكية ديال AttijariWafa Bank:
+1. سير للصفحة الرئيسية ديال الموقع ديال AttijariWafa Bank (www.attijariwafabank.com).
+2. كليكي على زر "وكالات" فالشريط الرئيسي فوق الصفحة.
+3. فالصفحة الجديدة، دخل الموقع الحالي ولا اسم المدينة/الحي اللي بغيتي تقلب عليه.
+4. اضغط على الزر "بحث".
+5. غادي تظهر ليك ليستة ديال أقرب الوكالات البنكية المتاحة فالمنطقة لي اخترتيها.
+يمكن ليك تستعمل حتى أداة البحث على الخريطة، فين تقدر تعثر على وكالات AttijariWafa Bank بالقرب من موقعك الحالي:
+1. سير للصفحة الرئيسية ديال الموقع ديال AttijariWafa Bank (www.attijariwafabank.com).
+2. كليكي على زر "وكالات" فالشريط الرئيسي فوق الصفحة.
+3. غادي تبان ليك خريطة فيها جميع وكالات البنك فالمغرب، بما فيهم هادوك لي قراب من موقعك الحالي.
+نتمنى هاد الشي عاونك!</t>
+  </si>
+  <si>
+    <t>Où puis-je trouver l'agence de banque la plus proche ?</t>
+  </si>
+  <si>
+    <t>فين لقا قاقرب وكالة بنكية منضاري</t>
+  </si>
+  <si>
+    <t>record_out_10.wav</t>
+  </si>
+  <si>
+    <t>باش تبدل كود التحقق (CSV) للبطاقة ديالك ف AttijariWafa Bank Mobile app، تبع هاد الخطوات:
+1. حل تطبيق AttijariWafa Bank Mobile فالسمارتفون ولا الطابليت ديالك.
+2. دخل لحسابك بالاسم المستخدم والرمز السري ديال الحساب البنكي.
+3. كليكي على الزر "الإدارة" فوق الشاشة باش تقلب على الأقسام المتاحة فالتطبيق.
+4. لقا وتكليكي على القسم "إعدادات البطاقة".
+5. غادي تبان ليك ليستة ديال البطاقات المصرفية المرتبطة بحسابك. ختار البطاقة لي بغيتي تبدل لكود التحقق (CSV) ديالها.
+6. دخل للقسم "معلومات بطاقة"، وكليكي على الخيار "حذف كود التحقق".
+7. كون مستعد باش تدخل كود تحققي الحالي وترجع تكتب الكود الجديد لي بغيتي تبدلو بيه.
+8. كمل العملية بالكليك على زر "تأكيد" ولا "حفظ التغييرات"، حسب تصميم التطبيق.
+ملاحظة: ممكن يطلبو منك معلومات إضافية ولا إجراءات تأكيد قبل ما يكمل الطلب.</t>
+  </si>
+  <si>
+    <t>Je voudrais changer mon CV pour l'application bancaire</t>
+  </si>
+  <si>
+    <t>بغيت نبدل راكم السيفي ديال التطبيق البنكي</t>
+  </si>
+  <si>
+    <t>record_out_11.wav</t>
+  </si>
+  <si>
+    <t>باش تطلب زيادة فحد البطاقة، تبع هاد الخطوات:
+1. سير لصفحة طلب "زيادة الحد" على موقع AttijariWafa Bank (www.attijariwafabank.com/fr).
+2. عمر جميع الحقول المطلوبة بالمعلومات الصحيحة والكاملة ديال الكارت البنكية لي بغيتي تزيد فالحد ديالها، بما فيها رقم البطاقة وعدد الثمان الأرقام الأخيرة من الرمز السري (CSV) الحالي ديالك.
+3. جاوب على الأسئلة المتعلقة بشحال بغيتي تزيد فالمبلغ والغرض من الزيادة.
+4. كمل طلبك بالضغط على زر "إرسال" ولا "تأكيد".
+من بعد ما ترسل الطلب، يمكن يطلبو منك معلومات إضافية ولا إجراءات تأكيد باش يكملو العملية ديال الموافقة، بحال شي اتصال هاتفي مع المسوق المصرفي. ملاحظة: الحد الأقصى لزيادة البطاقة غادي يعتمد على القوانين والضوابط الداخلية لي عند AttijariWafa Bank، وحتى على السجل الائتماني ديالك كعميل.
+باش تسترجع رمز التحقق (CSV) إلا ضيعتيه ولا نسيتو، تبع هاد الخطوات:
+1. سير لصفحة "استرجاع كود البطاقة" فموقع AttijariWafa Bank (www.attijariwafabank.com/fr).
+2. عمر جميع الحقول المطلوبة بالمعلومات الصحيحة والكاملة ديال الكارت البنكية لي بغيتي تسترجع الرمز السري ديالها، بما فيه رقم البطاقة واسم صاحب الكارت.
+3. جاوب على الأسئلة المتعلقة بشحال كتفكر من آخر مرة استعملتي فيها رمز التحقق الحالي وعلاش ضيعتيه ولا نسيتو.
+4. كمل طلبك بالضغط على زر "إرسال" ولا "تأكيد".
+من بعد ما ترسل الطلب، يمكن يطلبو منك معلومات إضافية ولا إجراءات تأكيد باش يكملو العملية ديال الموافقة، بحال شي اتصال هاتفي مع المسوق المصرفي. ملاحظة: كود التحقق هو رقم قصير وخاص كتستعملوه لتأكيد المعاملات عبر الإنترنت ولا فالتلفون. مهم تخليه بعيد على الوصول للأشخاص غير المرخص لهم باش تحمي الكارت البنكية ديالك من الغش والإساءة المحتملة.</t>
+  </si>
+  <si>
+    <t>Puis-je ajouter une carte de crédit à mon compte ?</t>
+  </si>
+  <si>
+    <t>نزيد الكور ديال البطاقة واش نقدر نسترجعو</t>
+  </si>
+  <si>
+    <t>record_out_12.wav</t>
+  </si>
+  <si>
+    <t>باش تفتح حساب ف AttijariWafa Bank، هادي هي الوثائق لي عادة كيطلبوها:
+1. بطاقة الهوية الوطنية ولا الجنسية مع صورة ديال صاحب الحساب.
+2. عقد الزواج ولا إثبات العلاقة للزوجين (إلى كان عندهم حساب مشترك).
+3. العنوان ديال صاحب الحساب، بحال فاتورة الضو ولا الما والغاز فالاسم ديالو من الثلاث شهور الأخيرة.
+4. وثيقة الهوية الوطنية الصالحة مع صورة للضمان.
+5. إثبات دخل كافي:
+* للموظفين: ورقة العمل والحصول على الراتب (إلى كان متوفر).
+6. وثائق أخرى ممكن تطلبها حسب نوع الحساب لي بغيتي تفتحو، بحال رقم البطاقة الوطنية ولا دليل العلاقة للزوجين.
+7. إثبات محل الإقامة فالمغرب إلا كان صاحب الحساب أجنبي وما عندوش بطاقة الهوية المغربية الصالحة.
+ملاحظة: الوثائق المطلوبة ممكن تختلف حسب نوع الكارت البنكية لي بغيتي تفتحو وعند المسوق المصرفي ديالك، لهذا خاصك تتأكد من المتطلبات الخاصة قبل ما تمشي للبنك.</t>
+  </si>
+  <si>
+    <t>Quelles pièces justificatives dois-je apporter pour ouvrir un nouveau compte ?</t>
+  </si>
+  <si>
+    <t>شنو الوتائق لي خاصني نجيب باش نفتح حساب جديد</t>
+  </si>
+  <si>
+    <t>record_out_13.wav</t>
+  </si>
+  <si>
+    <t>باش تشوف مبلغ الفائدة لي كتخلص فعلا على كريدي الشخصي ولا القرض، هاد الخطوات ممكن يعاونوك:
+1. جبد أوطيل ديال الفاتورة الأخيرة من البنك.
+2. قلب على قسم "تقرير الحساب" باش تلقى تفاصيل الكريدي ديالك والفاتورة لي خلصتيها حتى لدابا.
+3. قرا بعناية القسم "مبلغ المتبقي للقرض"، هادا هو المبلغ الرأسمالي لي مازال خاصك تعتقو للبنك.
+4. قلب على قسم "المجموع المفروض للمستقبل" باش تعرف شحال من الفاتورة غادي تاخدها فالمستقبل حسب نوع الكريدي ديالك.
+5. قرا بعناية القسم "مبلغ الفوائد" لي كيشير للفترات الزمنية المحددة وشحال خاصك تخلص كل شهر فالآجال ديال الخلاص، هادشي غادي يعاونك تعرف مبلغ الإقساط اليومي ولا الشهرية على الكريدي.
+6. إلى كان عندك كريدي معدل ثابت الفائدة، قسم المجموع المفروض للمستقبل (بما فيه الفوائد) على مجموع الاقتراض باش تحصل على متوسط مبلغ الخلاص لي خاصك تتوقعو كل شهر خلال مدة صلاحية الكريدي ديالك.
+ملاحظة: إرشادات الخلاص ممكن تختلف حسب نوع كريدي الشخصي ولا القرض، لهذا مهم تشوف بعناية الوثيقة العقدية ولا طلب المساعدة من مسوق البنك باش تكون عندك معلومات أكثر دقة.</t>
+  </si>
+  <si>
+    <t>Je voudrais savoir combien je dois payer d'intérêts sur mon prêt</t>
+  </si>
+  <si>
+    <t>بغيت نعق شحال كنخلص فالفوائد علا الكريدي</t>
+  </si>
+  <si>
+    <t>record_out_14.wav</t>
+  </si>
+  <si>
+    <t>إلا بغيتي تعاقب عملية بنكية لي كتشير للخلاص، هاد الخطوات ممكن يعاونوك:
+1. جاوب على الإعلان ولا الخبر الجديد فموقع جريدة مغربية (مثال).
+2. كتب التعليق ديالك باش تحبس العملية البنكية وتشارك مع الآخرين التجارب ديالك.</t>
+  </si>
+  <si>
+    <t>Comment puis-je autoriser cette opération bancaire ?</t>
+  </si>
+  <si>
+    <t>كيفاش تقبل نعاقب العملية البنكية ديالي</t>
+  </si>
+  <si>
+    <t>record_out_15.wav</t>
+  </si>
+  <si>
+    <t>باش تبقى بطاقة الكريدي ولا الـATM فالبيبان، هاد الخطوات ممكن يعاونوك:
+1. اتصل بالمسوق المصرفي لي كتحوال ليه باش تطلب إيقاف أو تأجيل مؤقت للبطاقات البنكية ديالك.
+2. جاوب على أي أسئلة متعلقة بأسباب الإيقاف ولا التأجيل المؤقت والمدى المطلوب للحجز.
+3. تابع التعليمات بالتفصيل لي عطاها ليك المسوق المصرفي باش تأكد من عملية التحويل وتعطيه الوقت المناسب لإكمال العملية.
+ملاحظة: وقت المعالجة والمواعيد النهائية ممكن تختلف حسب البنك، لهذا مهم تتصل بالممثل المالي ديالك مباشرة للتفاصيل المتعلقة بالطلبات الخاصة بيك.</t>
+  </si>
+  <si>
+    <t>comment puis-je temporairement geler ma carte bancaire</t>
+  </si>
+  <si>
+    <t>كيفاش نقدر نحبس بطاقة البنك مؤقتة</t>
+  </si>
+  <si>
+    <t>record_out_16.wav</t>
+  </si>
+  <si>
+    <t>إلا بغيتي تدير تحويل دولي باستخدام تطبيق AttijariWafaBank:
+1. حل التطبيق وحل الكونط ديالك.
+2. اختار "خدمات البنك" ولا أي قسم مشابه فالموقع، حسب اسم الموقع والوظيفة لي كتقلب عليها.
+3. دور على الخيار باش دير تحويل دولي ولا الخدمة لي كتعلق بيه (إلا كان متوفر) وقرا التعليمات بعناية منين تلقاها.
+ملاحظة: الخطوات المحددة ممكن تختلف حسب اسم التطبيق، فلهذا مهم تبقى كتشوف الصفحة الرئيسية ديال التطبيق باش تعرف أي خيارات تحويل دولي لي يمكن ليك تديرها فالوقت الحاضر.</t>
+  </si>
+  <si>
+    <t>Comment puis-je effectuer un virement international via l'application ?</t>
+  </si>
+  <si>
+    <t>باش نقدر ندير تحويل دولي من التطبيق</t>
+  </si>
+  <si>
+    <t>record_out_17.wav</t>
+  </si>
+  <si>
+    <t>إلا كنتي بغيتي تعير كون تتحول ليك فلوس فAttijariWafaBank، ها الخطوات:
+1. اتصل بالمسوق المصرفي ديال AttijariWafaBank عبر التلفون ولا الزيارة للبنك باش تبدا عملية الإعارة.
+2. جاوب على أي أسئلة متعلقة بأسباب طلب الإعارة ومدى الخلاص المطلوب للحجز (إلى كان متوفر).
+ملاحظة: إرشادات الاستعلامات الخاصة ممكن تختلف حسب البنك، لهذا مهم تتصل بالمسوق المصرفي مباشرة للتفاصيل المتعلقة بالطلبات الخاصة بيك.</t>
+  </si>
+  <si>
+    <t>Je voulais que l'argent me soit viré hier</t>
+  </si>
+  <si>
+    <t>بغيت نعير تكون حول ليا الفلوس البارح</t>
+  </si>
+  <si>
+    <t>record_out_18.wav</t>
+  </si>
+  <si>
+    <t>باش تبقى ساحب لليام من خلال استعمال خدمة AttijariWafa Bank، هاد الخطوات ممكن يعاونوك:
+1. دير طلب إيقاف مؤقت للبطاقة البنكية ولا الـATM فالبيبان.
+2. جاوب على أي أسئلة متعلقة بأسباب الإيقاف والمدة المطلوبة للحجز.</t>
+  </si>
+  <si>
+    <t>Comment puis-je déposer des fonds ?</t>
+  </si>
+  <si>
+    <t>شنو هي الطريقة باش نزيد لي ميت ديال السهب</t>
+  </si>
+  <si>
+    <t>record_out_19.wav</t>
+  </si>
+  <si>
+    <t>إلا بغيتي تعرف مبلغ البطاقة ديالك فAttijariWafaBank، ها الخطوات:
+1. اتصل بالمسوق المصرفي عبر التلفون ولا الزيارة للبنك باش تبدا عملية الاستعلام على رصيد البطاقة.
+2. جاوب على أي أسئلة متعلقة لأسباب طلب الرصيد والمدة المطلوبة للحجز (إلى كان متوفر).</t>
+  </si>
+  <si>
+    <t>Je voudrais savoir combien de crédit il me reste</t>
+  </si>
+  <si>
+    <t>بغيت نعرف شحال بقا ليا من الككايدي</t>
+  </si>
+  <si>
+    <t>record_out_2.wav</t>
+  </si>
+  <si>
+    <t>إلا بغيتي تعرف كيفاش تشوف تاريخ السجلات المالية على حساب البنك:
+1. دير طلب إيقاف مؤقت للبطاقة البنكية ولا الـATM فالبيبان.
+2. جاوب على أي أسئلة متعلقة بأسباب الإيقاف والمدة المطلوبة للحجز (إلى كان متوفر).</t>
+  </si>
+  <si>
+    <t>Où sont les relevés mensuels des comptes du mois dernier ?</t>
+  </si>
+  <si>
+    <t>فين لقا الغولوفي ديال الحساب ديال الشهور لي فاتو</t>
+  </si>
+  <si>
+    <t>record_out_20.wav</t>
+  </si>
+  <si>
+    <t>كنعتذر عن عدم القدرة ديالك باش تدخل طلبات البنك لي بغيتي.
+1. اتصل بالمسوق المصرفي عبر التلفون ولا الزيارة للبنك باش تبدا عملية الاستعلام على رصيد البطاقة.
+2. جاوب على أي أسئلة متعلقة لأسباب طلب الرصيد والمدة المطلوبة للحجز (إلى كان متوفر).</t>
+  </si>
+  <si>
+    <t>J'ai essayé de faire un transfert mais cela n'a pas fonctionné, qu'est-ce qui ne va pas ?</t>
+  </si>
+  <si>
+    <t>حاولت ندايك التحويل وما نجحش شنو المشكل</t>
+  </si>
+  <si>
+    <t>record_out_21.wav</t>
+  </si>
+  <si>
+    <t>كنعتذر عن خسارة بطاقتك البنكية وعلمك بأهمية اتخاذ خطوات لمنع المحتالين باش ما يبقاوش يوصلو للبطاقة ولا الكونط.
+1. اتصل بالمسوق المصرفي عبر التلفون ولا الزيارة للبنك باش تبدا عملية الاستعلام على رصيد البطاقة.
+2. جاوب على أي أسئلة متعلقة لأسباب طلب الرصيد والمدة المطلوبة للحجز (إلى كان متوفر).</t>
+  </si>
+  <si>
+    <t>Où puis-je me présenter pour signaler la perte de ma carte de crédit ?</t>
+  </si>
+  <si>
+    <t>شنو نقدة من ديلا ضيعت البطاقة البنكية</t>
+  </si>
+  <si>
+    <t>record_out_22.wav</t>
+  </si>
+  <si>
+    <t>كنعتذر عن الإحباط ديالك فالبنك.
+1. اتصل بالمسوق المصرفي عبر التلفون ولا الزيارة للبنك باش تبدا عملية الاستعلام على رصيد البطاقة.
+2. جاوب على أي أسئلة متعلقة لأسباب طلب الرصيد والمدة المطلوبة للحجز (إلى كان متوفر).</t>
+  </si>
+  <si>
+    <t>Oh là là ! Tout le monde est si stupide, pourquoi ai-je choisi cette banque en particulier ?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brêtness de tout le monde, où est ce qu'est ce que j'ai choisi pour le bank ?</t>
+  </si>
+  <si>
+    <t>record_out_23.wav</t>
+  </si>
+  <si>
+    <t>كنعتذر عن عدم فهم الخيار ديالك.
+1. اتصل بالمسوق المصرفي عبر التلفون ولا الزيارة للبنك باش تبدا عملية الاستعلام على رصيد البطاقة.
+2. جاوب على أي أسئلة متعلقة لأسباب طلب الرصيد والمدة المطلوبة للحجز (إلى كان متوفر).</t>
+  </si>
+  <si>
+    <t>Quels sont les services bancaires dont nous pouvons profiter ?</t>
+  </si>
+  <si>
+    <t>شنو هي الخدمات البنكي لي نقدرو نستافدو منها الله يعم</t>
+  </si>
+  <si>
+    <t>record_out_24.wav</t>
+  </si>
+  <si>
+    <t>Pourquoi est-ce que mon argent a-t-il été déduit chaque mois sans mon consentement ?</t>
+  </si>
+  <si>
+    <t>علاش تحيدو ليا فلوس كل شاير من الحسب</t>
+  </si>
+  <si>
+    <t>record_out_25.wav</t>
+  </si>
+  <si>
+    <t>Je voudrais transférer de l'argent d'un compte à l'autre. Comment faire ?</t>
+  </si>
+  <si>
+    <t>بغيت نحول الفلوس من حسابيت الحساب اخر كيفاش</t>
+  </si>
+  <si>
+    <t>record_out_26.wav</t>
+  </si>
+  <si>
+    <t>Excuse-moi, quelle heure est-ce que les agences ferment ?</t>
+  </si>
+  <si>
+    <t>عافاك شنو الوقت لي كتسالي فيه الوكالات</t>
+  </si>
+  <si>
+    <t>record_out_27.wav</t>
+  </si>
+  <si>
+    <t>Je veux en savoir plus sur ma situation de crédit</t>
+  </si>
+  <si>
+    <t>بغيت نستختر علا وضعية الكريدي ديالي</t>
+  </si>
+  <si>
+    <t>record_out_28.wav</t>
+  </si>
+  <si>
+    <t>Ah ouais, j'ai pris pas mal de jours de congé loin du bureau. C'est une autre histoire !</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enciz-t-il beaucoup de passe d'éloignement de l'application ? Vous êtes dans un autre show ?</t>
+  </si>
+  <si>
+    <t>record_out_29.wav</t>
+  </si>
+  <si>
+    <t>Merci de me dire si je peux fermer mon compte avant la date prévue.</t>
+  </si>
+  <si>
+    <t>عافاك واش نقدرن نسد الكريدي ديالي قبل الوقت</t>
+  </si>
+  <si>
+    <t>record_out_3.wav</t>
+  </si>
+  <si>
+    <t>Je veux savoir les étapes pour ouvrir un compte</t>
+  </si>
+  <si>
+    <t>بغيت نوقف الحسب شنو الخطوات</t>
+  </si>
+  <si>
+    <t>record_out_30.wav</t>
+  </si>
+  <si>
+    <t>Comment puis-je demander une nouvelle carte ?</t>
+  </si>
+  <si>
+    <t>كيفاش نقدر نطلب بطاقة جديدة</t>
+  </si>
+  <si>
+    <t>record_out_31.wav</t>
+  </si>
+  <si>
+    <t>Quelles sont les conditions pour obtenir un prêt ?</t>
+  </si>
+  <si>
+    <t>شنو المعاييق باش تقابلو الكبيدي</t>
+  </si>
+  <si>
+    <t>record_out_32.wav</t>
+  </si>
+  <si>
+    <t>J'ai un problème de calcul et je ne me souviens pas si tu peux m'aider ?</t>
+  </si>
+  <si>
+    <t>عندي مشكل فكش بالحساب واش تقدر تعاوني</t>
+  </si>
+  <si>
+    <t>record_out_33.wav</t>
+  </si>
+  <si>
+    <t>Je voudrais savoir combien de points j'ai accumulés dans le cadre du programme de fidélité</t>
+  </si>
+  <si>
+    <t>بغيت نعرف شحال من نقطة عندي فباغنامج ديال الولاء</t>
+  </si>
+  <si>
+    <t>record_out_34.wav</t>
+  </si>
+  <si>
+    <t>puis-je mettre mon compte en veille ?</t>
+  </si>
+  <si>
+    <t>واش نقدر نهبط الحساب ديالي بابيل بي</t>
+  </si>
+  <si>
+    <t>record_out_35.wav</t>
+  </si>
+  <si>
+    <t>Quelle est la dernière heure d'ouverture aujourd'hui ?</t>
+  </si>
+  <si>
+    <t>شنو هو الاحد الاقصا ديال السحد فاليوم</t>
+  </si>
+  <si>
+    <t>record_out_36.wav</t>
+  </si>
+  <si>
+    <t>Je voudrais savoir combien d'opérations ont été effectuées cette semaine.</t>
+  </si>
+  <si>
+    <t>بغيت نعرف شحال من عمليا دات هاد السيمانة</t>
+  </si>
+  <si>
+    <t>record_out_37.wav</t>
+  </si>
+  <si>
+    <t>Quelles sont les pièces justificatives dont j'ai besoin pour ouvrir un compte ?</t>
+  </si>
+  <si>
+    <t>شنو هي الوتائق المطلوبة لي فاش حسب تجائي</t>
+  </si>
+  <si>
+    <t>record_out_38.wav</t>
+  </si>
+  <si>
+    <t>Je veux contacter l'agent par téléphone</t>
+  </si>
+  <si>
+    <t>بغيت نتواصل مع متيل الوكالة كيفاش</t>
+  </si>
+  <si>
+    <t>record_out_39.wav</t>
+  </si>
+  <si>
+    <t>quelle est la prochaine étape après le dépot ?</t>
+  </si>
+  <si>
+    <t>شنو فاقمة بالحساب الجاية ولحسب الاد خابي</t>
+  </si>
+  <si>
+    <t>record_out_4.wav</t>
+  </si>
+  <si>
+    <t>Je voudrais savoir qui a le droit de consulter mon compte</t>
+  </si>
+  <si>
+    <t>بغيت نعايرف شكون عندو الحق يشوف الحساب ديالي</t>
+  </si>
+  <si>
+    <t>record_out_40.wav</t>
+  </si>
+  <si>
+    <t>Pourquoi est-ce que le taux de change que j'ai fait était tellement élevé ?</t>
+  </si>
+  <si>
+    <t>التحويل لي درت تعطوه بزاف علاش</t>
+  </si>
+  <si>
+    <t>record_out_41.wav</t>
+  </si>
+  <si>
+    <t>Je veux dire que tu devrais me donner la carte de crédit au moment où nous faisons le débouchage</t>
+  </si>
+  <si>
+    <t>بغت نعاك فوقت السلجعة البطاقة بعد البلوكاج</t>
+  </si>
+  <si>
+    <t>record_out_42.wav</t>
+  </si>
+  <si>
+    <t>Quel genre de soutien financier est disponible pour les entrepreneurs ?</t>
+  </si>
+  <si>
+    <t>شنو ناوع الكبيدين المناسب للمقاولين</t>
+  </si>
+  <si>
+    <t>record_out_43.wav</t>
+  </si>
+  <si>
+    <t>Comment puis-je protéger mon compte contre la fraude ?</t>
+  </si>
+  <si>
+    <t>كيفاش نحمي الحساب ديالي من الاحتيال</t>
+  </si>
+  <si>
+    <t>record_out_44.wav</t>
+  </si>
+  <si>
+    <t>"Bulletin d'épargne à taux fixe"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bulletin de l'épau sec</t>
+  </si>
+  <si>
+    <t>record_out_45.wav</t>
+  </si>
+  <si>
+    <t>Nous ne sommes malheureusement pas en mesure de vous offrir une autre solution pour le moment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nous n'avons à l'autre pas aik de ce soit tout nausea.</t>
+  </si>
+  <si>
+    <t>record_out_46.wav</t>
+  </si>
+  <si>
+    <t>Je voudrais savoir comment calculer les intérêts du crédit</t>
+  </si>
+  <si>
+    <t>بغيت نعرف كيفاش نحسب الفائدة لا الكريدي</t>
+  </si>
+  <si>
+    <t>record_out_47.wav</t>
+  </si>
+  <si>
+    <t>Il fournit principalement des rafraîchissements et de petites collations en-cas...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> qui fait refreshment surtout une petite gaining de la chaîne...</t>
+  </si>
+  <si>
+    <t>record_out_48.wav</t>
+  </si>
+  <si>
+    <t>Bonjour, est-il possible de fermer mon compte avant la date d'échéance ?</t>
+  </si>
+  <si>
+    <t>عافاك واش نقدر نسد الك ريدي ديالي قبل الوقت</t>
+  </si>
+  <si>
+    <t>record_out_49.wav</t>
+  </si>
+  <si>
+    <t>Non, je ne pense pas que ça me concerne.</t>
+  </si>
+  <si>
+    <t>لا بلي كاتسون ما خداماش عندي شنو ندير</t>
+  </si>
+  <si>
+    <t>record_out_5.wav</t>
+  </si>
+  <si>
+    <t>Quelles sont les conditions pour obtenir un prêt immobilier s'il vous plaît ?</t>
+  </si>
+  <si>
+    <t>شنو هي الشروط باش نخد قريدي للسكن عافاك</t>
+  </si>
+  <si>
+    <t>record_out_50.wav</t>
+  </si>
+  <si>
+    <t>S'il te plaît, qu'est-ce que cette opération sur le relevé bancaire ?</t>
+  </si>
+  <si>
+    <t>عافاك شنو كتعني هاد العملية لي فالكشف</t>
+  </si>
+  <si>
+    <t>record_out_51.wav</t>
+  </si>
+  <si>
+    <t>Comment puis-je temporairement bloquer ma carte de crédit ?</t>
+  </si>
+  <si>
+    <t>كيفاش نقدر نحبس بطاقة البنك مؤقت</t>
+  </si>
+  <si>
+    <t>record_out_52.wav</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que je dois faire si j'ai perdu ma carte de crédit s'il te plaît ?</t>
+  </si>
+  <si>
+    <t>شنو نقدر دير ضيعات البطاقة البنكية عافاك</t>
+  </si>
+  <si>
+    <t>record_out_53.wav</t>
+  </si>
+  <si>
+    <t>Je veux clôturer mon compte, quelles sont les démarches et peux-tu m'aider ?</t>
+  </si>
+  <si>
+    <t>بغيت نوقف الحساب شنو الخطوات ونفضلك</t>
+  </si>
+  <si>
+    <t>record_out_54.wav</t>
+  </si>
+  <si>
+    <t>Comment puis-je demander une nouvelle carte s'il te plaît?</t>
+  </si>
+  <si>
+    <t>كيفاش نقدر نطلب بطاقة جديدة منفضلك</t>
+  </si>
+  <si>
+    <t>record_out_55.wav</t>
+  </si>
+  <si>
+    <t>شنو هي القضية؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> qui國家的提 B</t>
+  </si>
+  <si>
+    <t>record_out_6.wav</t>
+  </si>
+  <si>
+    <t>Je voudrais demander conseil sur la façon de procéder</t>
+  </si>
+  <si>
+    <t>بغيت نطلب ديفتاكشيكاش كيفاش ندير</t>
+  </si>
+  <si>
+    <t>record_out_7.wav</t>
+  </si>
+  <si>
+    <t>سمح ليا ولكن ما قدرتش نفهم مزيان آش كتسول عليه. ممكن تعطيني شي توضيح أكثر ولا تعاود تطرح السؤال ديالك؟ شكرا بزاف.</t>
+  </si>
+  <si>
+    <t>Quelles sont les conditions pour obtenir un prêt immobilier ?</t>
+  </si>
+  <si>
+    <t>شنو هي الشروط باش ناخد كريدي للسكن</t>
+  </si>
+  <si>
+    <t>record_out_8.wav</t>
+  </si>
+  <si>
+    <t>Les champs sur la Gaules، فالحساب، مزيانين. صحيح هادشي.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les phil Fields de la Gaulle, dans le compte, bien tMatt, c'est vrai.</t>
+  </si>
+  <si>
+    <t>record_out_9.wav</t>
+  </si>
+  <si>
+    <t>Transcription Result</t>
+  </si>
+  <si>
+    <t>Translation Result</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,93 +710,55 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,61 +1046,1322 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F59FAF-576B-4722-8BBA-F89DC85D4384}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="79.85546875" customWidth="1"/>
+    <col min="3" max="3" width="70.85546875" customWidth="1"/>
+    <col min="4" max="4" width="78.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>response</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>translation</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>transcription</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>filename</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>مرحبا! كيفاش نقدر نعاونك اليوم فالبنك؟</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Salut, ça va ? Tout va bien et j'aimerais te demander quelque chose s'il te plaît</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>انسلام تبا لا باس عليك كلشي بخير وبغيت نسولك عافاك</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Transcript-text.wav</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" t="s">
+        <v>189</v>
+      </c>
+      <c r="G28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" t="s">
+        <v>189</v>
+      </c>
+      <c r="G29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" t="s">
+        <v>189</v>
+      </c>
+      <c r="G30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" t="s">
+        <v>189</v>
+      </c>
+      <c r="G31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" t="s">
+        <v>189</v>
+      </c>
+      <c r="G32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" t="s">
+        <v>189</v>
+      </c>
+      <c r="G33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" t="s">
+        <v>189</v>
+      </c>
+      <c r="G34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" t="s">
+        <v>189</v>
+      </c>
+      <c r="G35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" t="s">
+        <v>189</v>
+      </c>
+      <c r="G36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" t="s">
+        <v>189</v>
+      </c>
+      <c r="G37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" t="s">
+        <v>189</v>
+      </c>
+      <c r="G38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" t="s">
+        <v>189</v>
+      </c>
+      <c r="G39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" t="s">
+        <v>189</v>
+      </c>
+      <c r="G40" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" t="s">
+        <v>140</v>
+      </c>
+      <c r="F41" t="s">
+        <v>190</v>
+      </c>
+      <c r="G41" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" t="s">
+        <v>190</v>
+      </c>
+      <c r="G42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43" t="s">
+        <v>189</v>
+      </c>
+      <c r="G43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" t="s">
+        <v>190</v>
+      </c>
+      <c r="G44" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" t="s">
+        <v>152</v>
+      </c>
+      <c r="F45" t="s">
+        <v>189</v>
+      </c>
+      <c r="G45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" t="s">
+        <v>155</v>
+      </c>
+      <c r="F46" t="s">
+        <v>189</v>
+      </c>
+      <c r="G46" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" t="s">
+        <v>158</v>
+      </c>
+      <c r="F47" t="s">
+        <v>189</v>
+      </c>
+      <c r="G47" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" t="s">
+        <v>160</v>
+      </c>
+      <c r="E48" t="s">
+        <v>161</v>
+      </c>
+      <c r="F48" t="s">
+        <v>189</v>
+      </c>
+      <c r="G48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" t="s">
+        <v>164</v>
+      </c>
+      <c r="F49" t="s">
+        <v>189</v>
+      </c>
+      <c r="G49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" t="s">
+        <v>167</v>
+      </c>
+      <c r="F50" t="s">
+        <v>189</v>
+      </c>
+      <c r="G50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" t="s">
+        <v>168</v>
+      </c>
+      <c r="D51" t="s">
+        <v>169</v>
+      </c>
+      <c r="E51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F51" t="s">
+        <v>189</v>
+      </c>
+      <c r="G51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" t="s">
+        <v>172</v>
+      </c>
+      <c r="E52" t="s">
+        <v>173</v>
+      </c>
+      <c r="F52" t="s">
+        <v>189</v>
+      </c>
+      <c r="G52" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" t="s">
+        <v>175</v>
+      </c>
+      <c r="E53" t="s">
+        <v>176</v>
+      </c>
+      <c r="F53" t="s">
+        <v>190</v>
+      </c>
+      <c r="G53" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" t="s">
+        <v>179</v>
+      </c>
+      <c r="F54" t="s">
+        <v>189</v>
+      </c>
+      <c r="G54" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55" t="s">
+        <v>183</v>
+      </c>
+      <c r="F55" t="s">
+        <v>189</v>
+      </c>
+      <c r="G55" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" t="s">
+        <v>184</v>
+      </c>
+      <c r="D56" t="s">
+        <v>185</v>
+      </c>
+      <c r="E56" t="s">
+        <v>186</v>
+      </c>
+      <c r="F56" t="s">
+        <v>190</v>
+      </c>
+      <c r="G56" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
